--- a/muestras/2/workbook.xlsx
+++ b/muestras/2/workbook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="691" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="720" windowWidth="20730" windowHeight="11520" tabRatio="954" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Criterios" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="ProyVsIE" sheetId="3" r:id="rId18"/>
     <sheet name="ProyVsGI" sheetId="21" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -165,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +184,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -520,7 +532,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -617,155 +629,184 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="141">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1094,21 +1135,21 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="3" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="3" width="6.125" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -1118,14 +1159,14 @@
       <c r="C1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>21</v>
       </c>
@@ -1142,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +1198,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>22</v>
       </c>
@@ -1181,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1211,16 +1252,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1260,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1319,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1349,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -1339,16 +1380,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1406,7 +1447,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1422,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1436,7 +1477,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -1464,19 +1505,19 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A6:F6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1496,7 +1537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1516,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1534,7 +1575,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1591,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +1605,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -1592,19 +1633,19 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1624,7 +1665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1644,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1703,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1719,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1733,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -1717,25 +1758,28 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="16" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1775,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1787,13 +1831,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1809,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1823,7 +1867,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -1854,18 +1898,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
     <col min="12" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
     <col min="15" max="15" width="7.5" customWidth="1"/>
     <col min="16" max="16" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1905,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1923,7 +1967,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +1983,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +1997,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -1965,28 +2009,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
   </sheetData>
@@ -2008,19 +2052,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.375" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="7.875" customWidth="1"/>
     <col min="16" max="16" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2040,7 +2084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2078,7 +2122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -2094,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2108,7 +2152,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -2120,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2141,7 +2185,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2181,19 +2225,19 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7.875" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="9.125" customWidth="1"/>
+    <col min="16" max="16" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -2213,7 +2257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2251,7 +2295,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -2267,7 +2311,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2281,7 +2325,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -2293,31 +2337,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2337,7 +2381,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2357,7 +2401,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2377,7 +2421,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2412,28 +2456,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="9" width="7.375" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
     <col min="12" max="12" width="7.5" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.875" customWidth="1"/>
+    <col min="14" max="14" width="7.875" customWidth="1"/>
+    <col min="15" max="15" width="8.875" customWidth="1"/>
     <col min="16" max="16" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -2453,7 +2497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2491,7 +2535,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -2507,7 +2551,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2521,7 +2565,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -2533,34 +2577,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
     </row>
   </sheetData>
@@ -2578,19 +2622,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
     <col min="5" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -2610,7 +2654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -2630,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2648,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -2664,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -2678,7 +2722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -2690,51 +2734,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
@@ -2756,18 +2800,18 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
     <col min="3" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="9" width="5.83203125" customWidth="1"/>
+    <col min="5" max="9" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="6.5" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
@@ -2781,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
@@ -2795,7 +2839,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2851,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
@@ -2817,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2842,17 +2886,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="5.125" customWidth="1"/>
+    <col min="12" max="12" width="4.875" customWidth="1"/>
+    <col min="13" max="13" width="6.125" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +2913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -2886,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2901,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2914,7 +2958,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
@@ -2925,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2945,22 +2989,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:E5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2977,7 +3024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2990,11 +3037,11 @@
       <c r="D2" s="13">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E2" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3005,11 +3052,11 @@
       <c r="D3" s="11">
         <v>0.14285714285714285</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -3018,11 +3065,11 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="42">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
@@ -3049,19 +3096,19 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
@@ -3075,7 +3122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
@@ -3089,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>13</v>
       </c>
@@ -3101,7 +3148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>14</v>
       </c>
@@ -3111,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3133,24 +3180,24 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="A6:F6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="4" width="5.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="10" width="5.875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.875" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="8.375" customWidth="1"/>
     <col min="16" max="16" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3170,7 +3217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3183,14 +3230,14 @@
       <c r="D2" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E2" s="14">
-        <v>5</v>
+      <c r="E2" s="44">
+        <v>3</v>
       </c>
       <c r="F2" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3208,7 +3255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -3224,7 +3271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3238,7 +3285,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -3269,16 +3316,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3298,7 +3345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3318,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3336,7 +3383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -3352,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3366,7 +3413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -3391,22 +3438,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3426,27 +3476,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="39">
         <v>0.2</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="36">
         <v>0.1111111111111111</v>
       </c>
       <c r="F2" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3455,16 +3505,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="11">
-        <v>5</v>
-      </c>
-      <c r="E3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="38">
         <v>0.1111111111111111</v>
       </c>
       <c r="F3" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -3473,14 +3523,14 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
-        <v>5</v>
+      <c r="E4" s="37">
+        <v>0.1111111111111111</v>
       </c>
       <c r="F4" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3494,7 +3544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -3508,7 +3558,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3525,16 +3575,16 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="10" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="10" width="5.875" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3554,7 +3604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -3574,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3592,7 +3642,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -3608,7 +3658,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -3622,7 +3672,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>19</v>
       </c>
@@ -3634,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
